--- a/Map-R5-consent-state-codes-for-R4.xlsx
+++ b/Map-R5-consent-state-codes-for-R4.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>Property</t>
   </si>
@@ -60,15 +60,12 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:14.1652469-06:00</t>
+    <t>2026-02-21T13:36:49.309759-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>FHIR Infrastructure</t>
-  </si>
-  <si>
     <t>Contact</t>
   </si>
   <si>
@@ -111,7 +108,7 @@
     <t>Relationship</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/consent-state-codes</t>
+    <t>http://hl7.org/fhir/consent-state-codes|5.0.0</t>
   </si>
   <si>
     <t/>
@@ -377,60 +374,58 @@
       <c r="A9" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B9" t="s" s="2">
-        <v>17</v>
-      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>18</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>22</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -448,36 +443,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
         <v>30</v>
       </c>
-      <c r="C1" t="s" s="1">
-        <v>31</v>
-      </c>
       <c r="D1" t="s" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>33</v>
-      </c>
       <c r="C2" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -485,101 +480,101 @@
         <v>11</v>
       </c>
       <c r="B3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>35</v>
       </c>
       <c r="D3" t="s" s="2">
         <v>11</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="B4" t="s" s="2">
-        <v>37</v>
-      </c>
       <c r="C4" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="E4" t="s" s="2">
         <v>36</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="B5" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="C5" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s" s="2">
         <v>38</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="B6" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="C6" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s" s="2">
         <v>40</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="C7" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="D7" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="E7" t="s" s="2">
         <v>45</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="C8" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="C8" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D8" t="s" s="2">
+      <c r="E8" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="E8" t="s" s="2">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
